--- a/ChisMethods/ChisMethods/plots/krank-nikolson_tauLess.xlsx
+++ b/ChisMethods/ChisMethods/plots/krank-nikolson_tauLess.xlsx
@@ -3212,12 +3212,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="173339776"/>
-        <c:axId val="173341312"/>
-        <c:axId val="5196864"/>
+        <c:axId val="66502656"/>
+        <c:axId val="66504192"/>
+        <c:axId val="66390208"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="173339776"/>
+        <c:axId val="66502656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,7 +3227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173341312"/>
+        <c:crossAx val="66504192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3235,7 +3235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173341312"/>
+        <c:axId val="66504192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,12 +3246,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173339776"/>
+        <c:crossAx val="66502656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="5196864"/>
+        <c:axId val="66390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173341312"/>
+        <c:crossAx val="66504192"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -3295,20 +3295,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3616,7 +3616,7 @@
   <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
